--- a/BackTest/2019-10-19 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-19 BackTest STRAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>34</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.25</v>
+      </c>
       <c r="L12" t="n">
         <v>381.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>36</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>11.76470588235294</v>
+      </c>
       <c r="L13" t="n">
         <v>382</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>41</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-8.108108108108109</v>
+      </c>
       <c r="L14" t="n">
         <v>381.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>42</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>5.88235294117647</v>
+      </c>
       <c r="L15" t="n">
         <v>381.7</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>43</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-17.24137931034483</v>
+      </c>
       <c r="L16" t="n">
         <v>381.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>48</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>36</v>
+      </c>
       <c r="L17" t="n">
         <v>381.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>51</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-10</v>
+      </c>
       <c r="L18" t="n">
         <v>382.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>52</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-5.263157894736842</v>
+      </c>
       <c r="L19" t="n">
         <v>382.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>63</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>383.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>73</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-2.564102564102564</v>
+      </c>
       <c r="L21" t="n">
         <v>383.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>83</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.8936170212766</v>
+      </c>
       <c r="L22" t="n">
         <v>384</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>91</v>
       </c>
       <c r="K23" t="n">
-        <v>3.370786516853932</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
         <v>383.9</v>
@@ -1466,7 +1488,7 @@
         <v>91</v>
       </c>
       <c r="K24" t="n">
-        <v>3.370786516853932</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="L24" t="n">
         <v>384.3</v>
@@ -1515,7 +1537,7 @@
         <v>92</v>
       </c>
       <c r="K25" t="n">
-        <v>2.272727272727273</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="L25" t="n">
         <v>384.7</v>
@@ -1564,7 +1586,7 @@
         <v>93</v>
       </c>
       <c r="K26" t="n">
-        <v>8.235294117647058</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L26" t="n">
         <v>385.3</v>
@@ -1613,7 +1635,7 @@
         <v>95</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.234567901234568</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L27" t="n">
         <v>385.2</v>
@@ -1662,7 +1684,7 @@
         <v>97</v>
       </c>
       <c r="K28" t="n">
-        <v>13.51351351351351</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L28" t="n">
         <v>385.6</v>
@@ -1711,7 +1733,7 @@
         <v>98</v>
       </c>
       <c r="K29" t="n">
-        <v>1.492537313432836</v>
+        <v>-20</v>
       </c>
       <c r="L29" t="n">
         <v>386</v>
@@ -1760,7 +1782,7 @@
         <v>98</v>
       </c>
       <c r="K30" t="n">
-        <v>4.615384615384616</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
         <v>385.3</v>
@@ -1809,7 +1831,7 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>1.492537313432836</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L31" t="n">
         <v>385.4</v>
@@ -1860,7 +1882,7 @@
         <v>105</v>
       </c>
       <c r="K32" t="n">
-        <v>7.042253521126761</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L32" t="n">
         <v>385</v>
@@ -1911,7 +1933,7 @@
         <v>105</v>
       </c>
       <c r="K33" t="n">
-        <v>4.347826086956522</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>385.4</v>
@@ -1962,7 +1984,7 @@
         <v>106</v>
       </c>
       <c r="K34" t="n">
-        <v>10.76923076923077</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L34" t="n">
         <v>385.7</v>
@@ -2013,7 +2035,7 @@
         <v>110</v>
       </c>
       <c r="K35" t="n">
-        <v>2.941176470588235</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L35" t="n">
         <v>385.5</v>
@@ -2064,7 +2086,7 @@
         <v>110</v>
       </c>
       <c r="K36" t="n">
-        <v>4.477611940298507</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L36" t="n">
         <v>385.2</v>
@@ -2115,7 +2137,7 @@
         <v>114</v>
       </c>
       <c r="K37" t="n">
-        <v>3.03030303030303</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L37" t="n">
         <v>385.5</v>
@@ -2166,7 +2188,7 @@
         <v>118</v>
       </c>
       <c r="K38" t="n">
-        <v>1.492537313432836</v>
+        <v>-10</v>
       </c>
       <c r="L38" t="n">
         <v>385.2</v>
@@ -2217,7 +2239,7 @@
         <v>120</v>
       </c>
       <c r="K39" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>385.2</v>
@@ -2268,7 +2290,7 @@
         <v>120</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.28070175438596</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
         <v>385.2</v>
@@ -2319,7 +2341,7 @@
         <v>120</v>
       </c>
       <c r="K41" t="n">
-        <v>6.382978723404255</v>
+        <v>-20</v>
       </c>
       <c r="L41" t="n">
         <v>385.4</v>
@@ -2370,7 +2392,7 @@
         <v>120</v>
       </c>
       <c r="K42" t="n">
-        <v>-18.91891891891892</v>
+        <v>-20</v>
       </c>
       <c r="L42" t="n">
         <v>385.1</v>
@@ -2421,7 +2443,7 @@
         <v>122</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.225806451612903</v>
+        <v>-25</v>
       </c>
       <c r="L43" t="n">
         <v>384.6</v>
@@ -2472,7 +2494,7 @@
         <v>124</v>
       </c>
       <c r="K44" t="n">
-        <v>3.03030303030303</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>384.4</v>
